--- a/medicine/Enfance/Sybil_Wettasinghe/Sybil_Wettasinghe.xlsx
+++ b/medicine/Enfance/Sybil_Wettasinghe/Sybil_Wettasinghe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sybil Wettasinghe (31 octobre 1927, Galle - 1er juillet 2020, Sri Jayawardenapura Kotte) est une auteure et illustratrice srilankaise spécialisée dans la littérature d'enfance et de jeunesse.
-En 1948, elle commence sa carrière en collaborant au journal Lankadeepa (en) pour lequel elle produit chaque samedi un strip inspiré de son enfance à Gintota (en) dans le district de Galle[1].
-En 1956 sort son premier ouvrage pour la jeunesse : Kuda Hora. Au cours de sa carrière elle participera à la création de plus de 200 ouvrages[2].
-Son travail a obtenu plusieurs distinctions internationales, dont un prix à la biennale d'illustration de Bratislava en 1989[3] ou encore le Nikkei Asia Prize (en) en 2012[1].
-En 2019, le journaliste Vijita Fernando (en) lui consacre une biographie : The story of Sybil Wettasinghe : a biography[4].
+En 1948, elle commence sa carrière en collaborant au journal Lankadeepa (en) pour lequel elle produit chaque samedi un strip inspiré de son enfance à Gintota (en) dans le district de Galle.
+En 1956 sort son premier ouvrage pour la jeunesse : Kuda Hora. Au cours de sa carrière elle participera à la création de plus de 200 ouvrages.
+Son travail a obtenu plusieurs distinctions internationales, dont un prix à la biennale d'illustration de Bratislava en 1989 ou encore le Nikkei Asia Prize (en) en 2012.
+En 2019, le journaliste Vijita Fernando (en) lui consacre une biographie : The story of Sybil Wettasinghe : a biography.
 </t>
         </is>
       </c>
